--- a/data/case1/11/V2_13.xlsx
+++ b/data/case1/11/V2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999464977407</v>
+        <v>0.99999999764011405</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99833964769134687</v>
+        <v>0.99824553993083698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99300646890145527</v>
+        <v>0.994180289614639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99491356180038681</v>
+        <v>0.99704366128309929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98362794577754875</v>
+        <v>0.98675255465820111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96196851634930158</v>
+        <v>0.96298321046663449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95569398851981813</v>
+        <v>0.95812779374344426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94656319565687674</v>
+        <v>0.95074632253765012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93481668263632134</v>
+        <v>0.9424140113314885</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92398754425631102</v>
+        <v>0.93499040034144354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92239130377064737</v>
+        <v>0.93386517924059231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91961128608732867</v>
+        <v>0.93198047171457887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.90832353602251825</v>
+        <v>0.92567992889903628</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90415601984126481</v>
+        <v>0.92397995554556689</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90156444739156161</v>
+        <v>0.92351519942926164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.89905789526398405</v>
+        <v>0.92342650054425246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.89534990410814574</v>
+        <v>0.92561994839808404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.89424098407334562</v>
+        <v>0.92451101863433061</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99728642858105587</v>
+        <v>0.99695292417857562</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99016942076572168</v>
+        <v>0.98983574454029077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98877093362646529</v>
+        <v>0.98843722668880452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98750643223474976</v>
+        <v>0.9871727176618168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98597224752114254</v>
+        <v>0.9871683994531999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97295196075603108</v>
+        <v>0.97421412483617886</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96649506129275997</v>
+        <v>0.9678216128834467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96027475014463559</v>
+        <v>0.96081298733393083</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95816472265006547</v>
+        <v>0.95803652196062428</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95215195512758588</v>
+        <v>0.94720656711446627</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9483847122648652</v>
+        <v>0.93983046396043168</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.944107202426129</v>
+        <v>0.9341944423017442</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.94456045622161389</v>
+        <v>0.93006655579481567</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.94590741379637111</v>
+        <v>0.92971558375354713</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9453874048691584</v>
+        <v>0.93115203010566727</v>
       </c>
     </row>
   </sheetData>
